--- a/StructureDefinition-Subject-uc1.xlsx
+++ b/StructureDefinition-Subject-uc1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="92">
   <si>
     <t>Path</t>
   </si>
@@ -157,9 +157,6 @@
 </t>
   </si>
   <si>
-    <t>Patient</t>
-  </si>
-  <si>
     <t>n/a</t>
   </si>
   <si>
@@ -232,9 +229,6 @@
     <t>The identifier used to identify the immunized person according to the policies applicable within the jurisdiction.</t>
   </si>
   <si>
-    <t>Patient.identifier</t>
-  </si>
-  <si>
     <t>Subject.name</t>
   </si>
   <si>
@@ -248,18 +242,12 @@
     <t>The legal name of the immunized person</t>
   </si>
   <si>
-    <t>Patient.name</t>
-  </si>
-  <si>
     <t>Subject.name.fullName</t>
   </si>
   <si>
     <t>Full Name</t>
   </si>
   <si>
-    <t>Patient.name.text</t>
-  </si>
-  <si>
     <t>Subject.name.firstName</t>
   </si>
   <si>
@@ -269,16 +257,10 @@
     <t>Firstname</t>
   </si>
   <si>
-    <t>Patient.name.given</t>
-  </si>
-  <si>
     <t>Subject.name.lastname</t>
   </si>
   <si>
     <t>Last or Family Name</t>
-  </si>
-  <si>
-    <t>Patient.name.family</t>
   </si>
   <si>
     <t>Subject.gender</t>
@@ -291,9 +273,6 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>Patient.gender</t>
-  </si>
-  <si>
     <t>Subject.dateOfBirth</t>
   </si>
   <si>
@@ -308,9 +287,6 @@
 To include at a minimum the year of birth (which could be estimated)</t>
   </si>
   <si>
-    <t>Patient.birthDate</t>
-  </si>
-  <si>
     <t>Subject.ethnicity</t>
   </si>
   <si>
@@ -319,9 +295,6 @@
   <si>
     <t>Represents the self-reported ethnic group of the immunized person.
 This should not be confused with citizenship or nationality.</t>
-  </si>
-  <si>
-    <t>Patient.extension</t>
   </si>
   <si>
     <t>Subject.sex</t>
@@ -524,7 +497,7 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="19.53125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="16.37109375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -738,15 +711,15 @@
         <v>45</v>
       </c>
       <c r="AJ2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK2" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>47</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -769,13 +742,13 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -826,7 +799,7 @@
         <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>42</v>
@@ -844,16 +817,16 @@
         <v>38</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -872,16 +845,16 @@
         <v>38</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>58</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -919,19 +892,19 @@
         <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>62</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>42</v>
@@ -943,18 +916,18 @@
         <v>38</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -968,22 +941,22 @@
         <v>43</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J5" t="s" s="2">
+      <c r="K5" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>68</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1034,7 +1007,7 @@
         <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>42</v>
@@ -1049,7 +1022,7 @@
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -1057,7 +1030,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1071,7 +1044,7 @@
         <v>43</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -1080,13 +1053,13 @@
         <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1137,7 +1110,7 @@
         <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>42</v>
@@ -1152,7 +1125,7 @@
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
@@ -1160,7 +1133,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1183,13 +1156,13 @@
         <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1240,7 +1213,7 @@
         <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>42</v>
@@ -1255,7 +1228,7 @@
         <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>38</v>
@@ -1263,7 +1236,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1286,13 +1259,13 @@
         <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1343,7 +1316,7 @@
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>42</v>
@@ -1358,7 +1331,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -1366,7 +1339,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1389,13 +1362,13 @@
         <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1446,7 +1419,7 @@
         <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>42</v>
@@ -1461,7 +1434,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -1469,7 +1442,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1492,13 +1465,13 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1549,7 +1522,7 @@
         <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -1564,7 +1537,7 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -1572,7 +1545,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1586,7 +1559,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -1595,13 +1568,13 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1652,7 +1625,7 @@
         <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -1667,7 +1640,7 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
@@ -1675,7 +1648,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1698,13 +1671,13 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1755,7 +1728,7 @@
         <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -1770,7 +1743,7 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -1778,7 +1751,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1792,7 +1765,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>38</v>
@@ -1801,13 +1774,13 @@
         <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1858,7 +1831,7 @@
         <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>

--- a/StructureDefinition-Subject-uc1.xlsx
+++ b/StructureDefinition-Subject-uc1.xlsx
@@ -304,7 +304,7 @@
   </si>
   <si>
     <t>Documentation of a specific instance of sex information. 
-Not to be confused with the client’s gender identity (if present) which is an individual's personal sense of being a man, woman, boy, girl, or something else.</t>
+Not to be confused with the client?s gender identity (if present) which is an individual's personal sense of being a man, woman, boy, girl, or something else.</t>
   </si>
 </sst>
 </file>
